--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373539.6188310854</v>
+        <v>369813.3618732436</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2821214.707946068</v>
+        <v>2254375.780409608</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19391774.39632785</v>
+        <v>18836215.56344937</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5049628.560776444</v>
+        <v>5285910.380205093</v>
       </c>
     </row>
     <row r="11">
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>50.19740799690857</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="T2" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>44.21387696367703</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.626473537507742</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>16.32206764769464</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.21387696367704</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C6" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R7" t="n">
-        <v>24.4008832553411</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S7" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U8" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>47.73673492061303</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.547657929861283</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H11" t="n">
-        <v>44.21387696367703</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1449,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1540,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1613,22 +1615,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>50.19740799690857</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="G14" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H14" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1692,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>50.19740799690857</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1762,34 +1764,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.4008832553411</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1844,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="E17" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G17" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="18">
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>54.19701966463789</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
-        <v>54.19701966463789</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
-        <v>54.19701966463789</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>159.5028127661658</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.32206764769463</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>41.43010407512111</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X20" t="n">
-        <v>274.2838073416025</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>92.1647809859423</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>112.2356790673109</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>178.9131266416084</v>
+        <v>32.75410523180391</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -2409,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>147.5411250341799</v>
+        <v>114.5126339349788</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="W25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2643,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2685,13 +2687,13 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>105.8930912156188</v>
       </c>
       <c r="V27" t="n">
-        <v>127.7549501390852</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>249.98934675</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,67 +2797,67 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="X29" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G29" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>274.2838073416025</v>
@@ -2871,7 +2873,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -2880,7 +2882,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>17.04602390744392</v>
       </c>
       <c r="X30" t="n">
-        <v>162.2404390449899</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,70 +3028,70 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>18.62406031006298</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G32" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>25.02668776642608</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>154.2141932558485</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>32.75410523180386</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3399,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>88.0013779268256</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="F38" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>99.73835480560622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>64.80783300507451</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>224.6571770672012</v>
@@ -3645,10 +3647,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="40">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11.57657371040603</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270.2841956738732</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>179.4411728963331</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>18.62406031006298</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>168.9616139056444</v>
@@ -3876,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>0.2036808639800802</v>
       </c>
       <c r="W42" t="n">
-        <v>15.27668833287917</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3940,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>99.15242676576017</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3989,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>50.19740799690857</v>
+        <v>173.2038115812842</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>50.19740799690857</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>50.19740799690857</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>58.5528868978128</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>24.40088325534112</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K2" t="n">
-        <v>4.015792639752686</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L2" t="n">
-        <v>4.015792639752686</v>
+        <v>105.459032490443</v>
       </c>
       <c r="M2" t="n">
-        <v>53.71122655669217</v>
+        <v>105.459032490443</v>
       </c>
       <c r="N2" t="n">
-        <v>103.4066604736316</v>
+        <v>105.459032490443</v>
       </c>
       <c r="O2" t="n">
-        <v>147.0752508385693</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P2" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q2" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R2" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S2" t="n">
-        <v>99.38072694337451</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="T2" t="n">
-        <v>54.72024516188256</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="U2" t="n">
-        <v>54.72024516188256</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="V2" t="n">
-        <v>54.72024516188256</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="W2" t="n">
-        <v>54.72024516188256</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="X2" t="n">
-        <v>54.72024516188256</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C3" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D3" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E3" t="n">
-        <v>48.67627442124464</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F3" t="n">
-        <v>4.015792639752686</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="G3" t="n">
-        <v>4.015792639752686</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="H3" t="n">
-        <v>4.015792639752686</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="I3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J3" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K3" t="n">
-        <v>61.10453740317706</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L3" t="n">
-        <v>61.10453740317706</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="M3" t="n">
-        <v>101.3987641537553</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="N3" t="n">
-        <v>101.3987641537553</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="O3" t="n">
-        <v>101.3987641537553</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="P3" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y3" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G4" t="n">
-        <v>171.052796385772</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H4" t="n">
-        <v>120.3483438636421</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I4" t="n">
-        <v>69.6438913415122</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J4" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K4" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L4" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M4" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N4" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O4" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P4" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q4" t="n">
-        <v>180.7765070297192</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="R4" t="n">
-        <v>180.7765070297192</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="S4" t="n">
-        <v>180.7765070297192</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="T4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="U4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="V4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C5" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D5" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E5" t="n">
-        <v>150.0851794655044</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F5" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G5" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H5" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I5" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J5" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K5" t="n">
-        <v>53.71122655669217</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L5" t="n">
-        <v>103.4066604736316</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="M5" t="n">
-        <v>151.0941980706948</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="N5" t="n">
-        <v>151.0941980706948</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="O5" t="n">
-        <v>200.7896319876343</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R5" t="n">
-        <v>200.7896319876343</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="S5" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="T5" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="U5" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="V5" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="W5" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="X5" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="Y5" t="n">
-        <v>200.7896319876343</v>
+        <v>59.08022588088608</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156.1291502061423</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="C6" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D6" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E6" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F6" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G6" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H6" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I6" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J6" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K6" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L6" t="n">
-        <v>61.10453740317706</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="M6" t="n">
-        <v>110.7999713201165</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="N6" t="n">
-        <v>110.7999713201165</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="O6" t="n">
-        <v>160.495405237056</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="P6" t="n">
-        <v>200.7896319876343</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X6" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="Y6" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.015792639752686</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="C7" t="n">
-        <v>4.015792639752686</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="D7" t="n">
-        <v>4.015792639752686</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="E7" t="n">
-        <v>4.015792639752686</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="F7" t="n">
-        <v>4.015792639752686</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="G7" t="n">
-        <v>4.015792639752686</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="H7" t="n">
-        <v>4.015792639752686</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="I7" t="n">
-        <v>4.015792639752686</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="J7" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K7" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L7" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M7" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N7" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O7" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q7" t="n">
-        <v>180.7765070297192</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R7" t="n">
-        <v>156.1291502061423</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S7" t="n">
-        <v>105.4246976840124</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="T7" t="n">
-        <v>54.72024516188256</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="U7" t="n">
-        <v>4.015792639752686</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="V7" t="n">
-        <v>4.015792639752686</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="W7" t="n">
-        <v>4.015792639752686</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="X7" t="n">
-        <v>4.015792639752686</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.015792639752686</v>
+        <v>75.56716289875945</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K8" t="n">
-        <v>53.71122655669217</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="L8" t="n">
-        <v>53.71122655669217</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="M8" t="n">
-        <v>103.4066604736316</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="N8" t="n">
-        <v>147.0752508385693</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="O8" t="n">
-        <v>147.0752508385693</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="P8" t="n">
-        <v>196.7706847555088</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R8" t="n">
-        <v>200.7896319876343</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="S8" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="T8" t="n">
-        <v>200.7896319876343</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="U8" t="n">
-        <v>156.1291502061423</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="V8" t="n">
-        <v>105.4246976840124</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="W8" t="n">
-        <v>54.72024516188256</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="X8" t="n">
-        <v>4.015792639752686</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C9" t="n">
-        <v>156.1291502061423</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D9" t="n">
-        <v>156.1291502061423</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E9" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F9" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G9" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H9" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I9" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J9" t="n">
-        <v>4.015792639752686</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K9" t="n">
-        <v>4.015792639752686</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L9" t="n">
-        <v>53.71122655669217</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="M9" t="n">
-        <v>53.71122655669217</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="N9" t="n">
-        <v>101.3987641537553</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="O9" t="n">
-        <v>151.0941980706948</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="P9" t="n">
-        <v>200.7896319876343</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S9" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="T9" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="U9" t="n">
-        <v>200.7896319876343</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="V9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y9" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="C10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="D10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="E10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="F10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="G10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="H10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="I10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="J10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L10" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M10" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N10" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O10" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P10" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.0720545075893</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R10" t="n">
-        <v>130.0720545075893</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S10" t="n">
-        <v>79.36760198545944</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="T10" t="n">
-        <v>79.36760198545944</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="U10" t="n">
-        <v>79.36760198545944</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="V10" t="n">
-        <v>28.66314946332957</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="W10" t="n">
-        <v>28.66314946332957</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="X10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.67627442124464</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C11" t="n">
-        <v>48.67627442124464</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D11" t="n">
-        <v>48.67627442124464</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E11" t="n">
-        <v>48.67627442124464</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F11" t="n">
-        <v>48.67627442124464</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="G11" t="n">
-        <v>48.67627442124464</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="H11" t="n">
-        <v>4.015792639752686</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="I11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K11" t="n">
-        <v>4.015792639752686</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="L11" t="n">
-        <v>4.015792639752686</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="M11" t="n">
-        <v>47.68438300469032</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="N11" t="n">
-        <v>97.3798169216298</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="O11" t="n">
-        <v>147.0752508385693</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="P11" t="n">
-        <v>196.7706847555088</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R11" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S11" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T11" t="n">
-        <v>48.67627442124464</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U11" t="n">
-        <v>48.67627442124464</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V11" t="n">
-        <v>48.67627442124464</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W11" t="n">
-        <v>48.67627442124464</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X11" t="n">
-        <v>48.67627442124464</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y11" t="n">
-        <v>48.67627442124464</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C12" t="n">
-        <v>156.1291502061423</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D12" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E12" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F12" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G12" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H12" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I12" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J12" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K12" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L12" t="n">
-        <v>11.40910348623759</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="M12" t="n">
-        <v>61.10453740317706</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="N12" t="n">
-        <v>110.7999713201165</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="O12" t="n">
-        <v>110.7999713201165</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="P12" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R12" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S12" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="T12" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="U12" t="n">
-        <v>200.7896319876343</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="V12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="C13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="D13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="E13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="F13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="G13" t="n">
-        <v>4.015792639752686</v>
+        <v>183.4928006759458</v>
       </c>
       <c r="H13" t="n">
-        <v>4.015792639752686</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="I13" t="n">
-        <v>4.015792639752686</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="J13" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K13" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L13" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M13" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N13" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O13" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P13" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q13" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R13" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="S13" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="T13" t="n">
-        <v>79.36760198545944</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="U13" t="n">
-        <v>28.66314946332957</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="V13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="W13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="X13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E14" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="F14" t="n">
-        <v>105.4246976840124</v>
+        <v>169.2350909958742</v>
       </c>
       <c r="G14" t="n">
-        <v>54.72024516188256</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="H14" t="n">
-        <v>4.015792639752686</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="I14" t="n">
-        <v>4.015792639752686</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L14" t="n">
-        <v>53.71122655669217</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="M14" t="n">
-        <v>97.3798169216298</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="N14" t="n">
-        <v>97.3798169216298</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="O14" t="n">
-        <v>147.0752508385693</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="P14" t="n">
-        <v>196.7706847555088</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C15" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D15" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J15" t="n">
-        <v>4.015792639752686</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K15" t="n">
-        <v>51.70333023681584</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="L15" t="n">
-        <v>101.3987641537553</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="M15" t="n">
-        <v>151.0941980706948</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="N15" t="n">
-        <v>200.7896319876343</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="O15" t="n">
-        <v>200.7896319876343</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7896319876343</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R15" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S15" t="n">
-        <v>99.38072694337451</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T15" t="n">
-        <v>48.67627442124464</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="U15" t="n">
-        <v>48.67627442124464</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="V15" t="n">
-        <v>48.67627442124464</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="W15" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X15" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.1291502061423</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="C16" t="n">
-        <v>156.1291502061423</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="D16" t="n">
-        <v>105.4246976840124</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="E16" t="n">
-        <v>54.72024516188256</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="F16" t="n">
-        <v>4.015792639752686</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="G16" t="n">
-        <v>4.015792639752686</v>
+        <v>183.4928006759458</v>
       </c>
       <c r="H16" t="n">
-        <v>4.015792639752686</v>
+        <v>128.7483363682308</v>
       </c>
       <c r="I16" t="n">
-        <v>4.015792639752686</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="J16" t="n">
-        <v>4.015792639752686</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K16" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L16" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M16" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N16" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O16" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="S16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="T16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="U16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="V16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="W16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="X16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>216.7880786585516</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C17" t="n">
-        <v>216.7880786585516</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D17" t="n">
-        <v>216.7880786585516</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E17" t="n">
-        <v>168.5691544963162</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F17" t="n">
-        <v>113.8246901886011</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G17" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H17" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K17" t="n">
-        <v>57.99081104116254</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L17" t="n">
-        <v>57.99081104116254</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M17" t="n">
-        <v>57.99081104116254</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N17" t="n">
-        <v>111.6458605091541</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O17" t="n">
-        <v>165.3009099771456</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P17" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.7880786585516</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K18" t="n">
-        <v>11.72907241965593</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L18" t="n">
-        <v>65.38412188764744</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M18" t="n">
-        <v>119.039171355639</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N18" t="n">
-        <v>163.1330291905601</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O18" t="n">
-        <v>216.7880786585516</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>168.5691544963162</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>168.5691544963162</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T18" t="n">
-        <v>113.8246901886011</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U18" t="n">
-        <v>59.08022588088608</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V18" t="n">
-        <v>4.335761573171031</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W18" t="n">
-        <v>4.335761573171031</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="X18" t="n">
-        <v>4.335761573171031</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L19" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M19" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N19" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O19" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P19" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q19" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R19" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V19" t="n">
-        <v>20.8226985910444</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W19" t="n">
-        <v>20.8226985910444</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X19" t="n">
-        <v>20.8226985910444</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.8226985910444</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="C20" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="D20" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="E20" t="n">
         <v>298.9970554374318</v>
-      </c>
-      <c r="C20" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="D20" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="E20" t="n">
-        <v>21.9427045873282</v>
       </c>
       <c r="F20" t="n">
         <v>21.9427045873282</v>
@@ -5777,25 +5779,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S20" t="n">
-        <v>1055.28663939154</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T20" t="n">
-        <v>830.0693492941459</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U20" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="W20" t="n">
+        <v>820.0808785163064</v>
+      </c>
+      <c r="X20" t="n">
         <v>576.0514062875353</v>
       </c>
-      <c r="V20" t="n">
+      <c r="Y20" t="n">
         <v>576.0514062875353</v>
-      </c>
-      <c r="W20" t="n">
-        <v>576.0514062875353</v>
-      </c>
-      <c r="X20" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>287.7915580351497</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="C21" t="n">
-        <v>115.0384429569669</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="D21" t="n">
-        <v>115.0384429569669</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="E21" t="n">
-        <v>115.0384429569669</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F21" t="n">
-        <v>21.9427045873282</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G21" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H21" t="n">
         <v>21.9427045873282</v>
@@ -5832,19 +5834,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K21" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L21" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M21" t="n">
-        <v>548.9545891439176</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N21" t="n">
-        <v>820.4955584121041</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O21" t="n">
-        <v>1088.375177389425</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P21" t="n">
         <v>1097.13522936641</v>
@@ -5859,22 +5861,22 @@
         <v>1001.483734658237</v>
       </c>
       <c r="T21" t="n">
-        <v>1001.483734658237</v>
+        <v>888.1143618629734</v>
       </c>
       <c r="U21" t="n">
-        <v>774.5572931762155</v>
+        <v>888.1143618629734</v>
       </c>
       <c r="V21" t="n">
-        <v>540.3060497018164</v>
+        <v>888.1143618629734</v>
       </c>
       <c r="W21" t="n">
-        <v>287.7915580351497</v>
+        <v>888.1143618629734</v>
       </c>
       <c r="X21" t="n">
-        <v>287.7915580351497</v>
+        <v>888.1143618629734</v>
       </c>
       <c r="Y21" t="n">
-        <v>287.7915580351497</v>
+        <v>888.1143618629734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.9427045873282</v>
+        <v>1064.05027458681</v>
       </c>
       <c r="C22" t="n">
-        <v>21.9427045873282</v>
+        <v>1064.05027458681</v>
       </c>
       <c r="D22" t="n">
-        <v>21.9427045873282</v>
+        <v>1064.05027458681</v>
       </c>
       <c r="E22" t="n">
-        <v>21.9427045873282</v>
+        <v>1064.05027458681</v>
       </c>
       <c r="F22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L22" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M22" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N22" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O22" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W22" t="n">
-        <v>21.9427045873282</v>
+        <v>1064.05027458681</v>
       </c>
       <c r="X22" t="n">
-        <v>21.9427045873282</v>
+        <v>1064.05027458681</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.9427045873282</v>
+        <v>1064.05027458681</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="E23" t="n">
+        <v>820.0808785163064</v>
+      </c>
+      <c r="F23" t="n">
+        <v>543.0265276662028</v>
+      </c>
+      <c r="G23" t="n">
         <v>298.9970554374318</v>
-      </c>
-      <c r="C23" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="D23" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="E23" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="F23" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="G23" t="n">
-        <v>21.9427045873282</v>
       </c>
       <c r="H23" t="n">
         <v>21.9427045873282</v>
@@ -6023,16 +6025,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V23" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W23" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X23" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>479.6813083318625</v>
+        <v>342.2841263065671</v>
       </c>
       <c r="C24" t="n">
-        <v>306.9281932536796</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="D24" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E24" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F24" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G24" t="n">
         <v>21.9427045873282</v>
@@ -6072,16 +6074,16 @@
         <v>168.577974491964</v>
       </c>
       <c r="L24" t="n">
-        <v>286.1736718527163</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M24" t="n">
-        <v>557.7146411209028</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N24" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O24" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P24" t="n">
         <v>1097.13522936641</v>
@@ -6090,28 +6092,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R24" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S24" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T24" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U24" t="n">
-        <v>1001.483734658237</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V24" t="n">
-        <v>1001.483734658237</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="W24" t="n">
-        <v>852.4522952297724</v>
+        <v>754.5394606773392</v>
       </c>
       <c r="X24" t="n">
-        <v>852.4522952297724</v>
+        <v>548.0125620829167</v>
       </c>
       <c r="Y24" t="n">
-        <v>646.7238594534228</v>
+        <v>342.2841263065671</v>
       </c>
     </row>
     <row r="25">
@@ -6169,19 +6171,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R25" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S25" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T25" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U25" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="V25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W25" t="n">
         <v>21.9427045873282</v>
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21.9427045873282</v>
+        <v>122.688517522284</v>
       </c>
       <c r="C26" t="n">
-        <v>21.9427045873282</v>
+        <v>122.688517522284</v>
       </c>
       <c r="D26" t="n">
-        <v>21.9427045873282</v>
+        <v>122.688517522284</v>
       </c>
       <c r="E26" t="n">
-        <v>21.9427045873282</v>
+        <v>122.688517522284</v>
       </c>
       <c r="F26" t="n">
         <v>21.9427045873282</v>
@@ -6248,28 +6250,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V26" t="n">
-        <v>853.1057571376389</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="W26" t="n">
-        <v>853.1057571376389</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="X26" t="n">
-        <v>576.0514062875353</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.9970554374318</v>
+        <v>399.7428683723875</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.9427045873282</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="C27" t="n">
-        <v>21.9427045873282</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="D27" t="n">
-        <v>21.9427045873282</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="E27" t="n">
-        <v>21.9427045873282</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="F27" t="n">
-        <v>21.9427045873282</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G27" t="n">
         <v>21.9427045873282</v>
@@ -6303,22 +6305,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K27" t="n">
-        <v>168.577974491964</v>
+        <v>38.09606741079833</v>
       </c>
       <c r="L27" t="n">
-        <v>355.48282099504</v>
+        <v>286.1736718527163</v>
       </c>
       <c r="M27" t="n">
-        <v>627.0237902632265</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N27" t="n">
-        <v>898.564759531413</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O27" t="n">
-        <v>898.564759531413</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P27" t="n">
         <v>1097.13522936641</v>
@@ -6333,22 +6335,22 @@
         <v>830.8154377838487</v>
       </c>
       <c r="T27" t="n">
-        <v>630.4290419169106</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U27" t="n">
-        <v>403.5026004348891</v>
+        <v>723.8527193842338</v>
       </c>
       <c r="V27" t="n">
-        <v>274.4571962539949</v>
+        <v>723.8527193842338</v>
       </c>
       <c r="W27" t="n">
-        <v>21.9427045873282</v>
+        <v>471.3382277175671</v>
       </c>
       <c r="X27" t="n">
-        <v>21.9427045873282</v>
+        <v>471.3382277175671</v>
       </c>
       <c r="Y27" t="n">
-        <v>21.9427045873282</v>
+        <v>471.3382277175671</v>
       </c>
     </row>
     <row r="28">
@@ -6409,13 +6411,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
         <v>21.9427045873282</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C29" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D29" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E29" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F29" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G29" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H29" t="n">
         <v>21.9427045873282</v>
@@ -6467,16 +6469,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L29" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N29" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O29" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P29" t="n">
         <v>1093.116282134284</v>
@@ -6500,13 +6502,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W29" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X29" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y29" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>499.8936553037125</v>
+        <v>472.0963302089128</v>
       </c>
       <c r="C30" t="n">
-        <v>327.1405402255297</v>
+        <v>472.0963302089128</v>
       </c>
       <c r="D30" t="n">
-        <v>179.5522335844735</v>
+        <v>324.5080235678566</v>
       </c>
       <c r="E30" t="n">
-        <v>21.9427045873282</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F30" t="n">
         <v>21.9427045873282</v>
@@ -6546,16 +6548,16 @@
         <v>168.577974491964</v>
       </c>
       <c r="L30" t="n">
-        <v>359.1441712859057</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M30" t="n">
-        <v>630.6851405540922</v>
+        <v>440.1189437601505</v>
       </c>
       <c r="N30" t="n">
-        <v>630.6851405540922</v>
+        <v>711.659913028337</v>
       </c>
       <c r="O30" t="n">
-        <v>898.564759531413</v>
+        <v>979.5395320056577</v>
       </c>
       <c r="P30" t="n">
         <v>1097.13522936641</v>
@@ -6564,28 +6566,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S30" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T30" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U30" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V30" t="n">
-        <v>830.8154377838487</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="W30" t="n">
-        <v>830.8154377838487</v>
+        <v>845.6657799248957</v>
       </c>
       <c r="X30" t="n">
-        <v>666.936206425273</v>
+        <v>639.1388813304732</v>
       </c>
       <c r="Y30" t="n">
-        <v>666.936206425273</v>
+        <v>639.1388813304732</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M31" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O31" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>853.1057571376389</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="C32" t="n">
-        <v>853.1057571376389</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="D32" t="n">
-        <v>853.1057571376389</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="E32" t="n">
-        <v>576.0514062875353</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="F32" t="n">
         <v>298.9970554374318</v>
       </c>
       <c r="G32" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H32" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I32" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J32" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K32" t="n">
         <v>143.241092649432</v>
@@ -6707,13 +6709,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P32" t="n">
         <v>1093.116282134284</v>
@@ -6728,22 +6730,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T32" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U32" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V32" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="W32" t="n">
-        <v>1097.13522936641</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="X32" t="n">
-        <v>1097.13522936641</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="Y32" t="n">
-        <v>1097.13522936641</v>
+        <v>594.8635884189121</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.9427045873282</v>
+        <v>525.173137896062</v>
       </c>
       <c r="C33" t="n">
-        <v>21.9427045873282</v>
+        <v>352.4200228178792</v>
       </c>
       <c r="D33" t="n">
-        <v>21.9427045873282</v>
+        <v>204.8317161768231</v>
       </c>
       <c r="E33" t="n">
-        <v>21.9427045873282</v>
+        <v>47.22218717967777</v>
       </c>
       <c r="F33" t="n">
         <v>21.9427045873282</v>
@@ -6777,25 +6779,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J33" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K33" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L33" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M33" t="n">
-        <v>548.9545891439176</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N33" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O33" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P33" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
@@ -6804,25 +6806,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T33" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U33" t="n">
-        <v>870.2087878843885</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="V33" t="n">
-        <v>635.9575444099894</v>
+        <v>692.2156890176225</v>
       </c>
       <c r="W33" t="n">
-        <v>383.4430527433227</v>
+        <v>692.2156890176225</v>
       </c>
       <c r="X33" t="n">
-        <v>227.6711403636777</v>
+        <v>692.2156890176225</v>
       </c>
       <c r="Y33" t="n">
-        <v>21.9427045873282</v>
+        <v>692.2156890176225</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E34" t="n">
-        <v>169.5780797487469</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L34" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M34" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N34" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O34" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C35" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D35" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E35" t="n">
         <v>21.9427045873282</v>
@@ -6941,46 +6943,46 @@
         <v>143.241092649432</v>
       </c>
       <c r="L35" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N35" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O35" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P35" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q35" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T35" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U35" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V35" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W35" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X35" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y35" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>194.695819665511</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C36" t="n">
         <v>21.9427045873282</v>
@@ -7026,13 +7028,13 @@
         <v>688.1965482020685</v>
       </c>
       <c r="N36" t="n">
-        <v>817.386591515115</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O36" t="n">
-        <v>817.386591515115</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P36" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
@@ -7047,19 +7049,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U36" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8839858920107</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W36" t="n">
-        <v>773.9937051578435</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X36" t="n">
-        <v>567.466806563421</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y36" t="n">
-        <v>361.7383707870715</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L37" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M37" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N37" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O37" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>676.7972192224911</v>
+      </c>
+      <c r="C38" t="n">
+        <v>676.7972192224911</v>
+      </c>
+      <c r="D38" t="n">
+        <v>676.7972192224911</v>
+      </c>
+      <c r="E38" t="n">
         <v>576.0514062875353</v>
       </c>
-      <c r="C38" t="n">
+      <c r="F38" t="n">
         <v>298.9970554374318</v>
-      </c>
-      <c r="D38" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="E38" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="F38" t="n">
-        <v>21.9427045873282</v>
       </c>
       <c r="G38" t="n">
         <v>21.9427045873282</v>
@@ -7178,19 +7180,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L38" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N38" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O38" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P38" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q38" t="n">
         <v>1097.13522936641</v>
@@ -7205,19 +7207,19 @@
         <v>953.8515700725947</v>
       </c>
       <c r="U38" t="n">
-        <v>853.1057571376389</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V38" t="n">
-        <v>853.1057571376389</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W38" t="n">
-        <v>576.0514062875353</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X38" t="n">
-        <v>576.0514062875353</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="Y38" t="n">
-        <v>576.0514062875353</v>
+        <v>953.8515700725947</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>87.40516216821155</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C39" t="n">
-        <v>87.40516216821155</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D39" t="n">
-        <v>87.40516216821155</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E39" t="n">
-        <v>87.40516216821155</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F39" t="n">
-        <v>87.40516216821155</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G39" t="n">
-        <v>87.40516216821155</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H39" t="n">
-        <v>87.40516216821155</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I39" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K39" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L39" t="n">
-        <v>270.0203090292462</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M39" t="n">
-        <v>541.5612782974326</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N39" t="n">
         <v>748.0774423727912</v>
@@ -7275,28 +7277,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T39" t="n">
-        <v>801.0973387912989</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U39" t="n">
-        <v>574.1708973092774</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V39" t="n">
-        <v>339.9196538348783</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W39" t="n">
-        <v>87.40516216821155</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X39" t="n">
-        <v>87.40516216821155</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y39" t="n">
-        <v>87.40516216821155</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>190.9695257299568</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C40" t="n">
         <v>21.9427045873282</v>
@@ -7366,16 +7368,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.8764456502059</v>
+        <v>853.1057571376391</v>
       </c>
       <c r="C41" t="n">
-        <v>202.8764456502059</v>
+        <v>576.0514062875354</v>
       </c>
       <c r="D41" t="n">
-        <v>202.8764456502059</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E41" t="n">
-        <v>202.8764456502059</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F41" t="n">
-        <v>21.62273565390985</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G41" t="n">
-        <v>21.62273565390985</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H41" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I41" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J41" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K41" t="n">
-        <v>142.9211237160136</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L41" t="n">
-        <v>345.3715781673772</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M41" t="n">
-        <v>585.8490106289726</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N41" t="n">
-        <v>814.7004443669421</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O41" t="n">
-        <v>968.9915346827825</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P41" t="n">
-        <v>1077.117835463367</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q41" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>937.8531234016774</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S41" t="n">
-        <v>729.9087277213348</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T41" t="n">
-        <v>729.9087277213348</v>
+        <v>871.9179392690158</v>
       </c>
       <c r="U41" t="n">
-        <v>475.8907847147242</v>
+        <v>871.9179392690158</v>
       </c>
       <c r="V41" t="n">
-        <v>475.8907847147242</v>
+        <v>871.9179392690158</v>
       </c>
       <c r="W41" t="n">
-        <v>475.8907847147242</v>
+        <v>871.9179392690158</v>
       </c>
       <c r="X41" t="n">
-        <v>475.8907847147242</v>
+        <v>871.9179392690158</v>
       </c>
       <c r="Y41" t="n">
-        <v>475.8907847147242</v>
+        <v>853.1057571376391</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>159.0199176792051</v>
+        <v>352.3053486626563</v>
       </c>
       <c r="C42" t="n">
-        <v>159.0199176792051</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D42" t="n">
-        <v>159.0199176792051</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E42" t="n">
-        <v>159.0199176792051</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F42" t="n">
-        <v>159.0199176792051</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.01604650039475</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K42" t="n">
-        <v>29.01604650039475</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="L42" t="n">
-        <v>277.0936509423128</v>
+        <v>204.9955038364184</v>
       </c>
       <c r="M42" t="n">
-        <v>544.6750046594473</v>
+        <v>476.5364731046049</v>
       </c>
       <c r="N42" t="n">
-        <v>812.2563583765817</v>
+        <v>748.0774423727914</v>
       </c>
       <c r="O42" t="n">
-        <v>882.5663128604957</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.136782695493</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R42" t="n">
-        <v>985.4852879873197</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>814.8169911129314</v>
+        <v>926.4669324920219</v>
       </c>
       <c r="T42" t="n">
-        <v>614.4305952459933</v>
+        <v>726.0805366250838</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4305952459933</v>
+        <v>726.0805366250838</v>
       </c>
       <c r="V42" t="n">
-        <v>380.1793517715942</v>
+        <v>725.8747983786393</v>
       </c>
       <c r="W42" t="n">
-        <v>364.7483534555546</v>
+        <v>725.8747983786393</v>
       </c>
       <c r="X42" t="n">
-        <v>364.7483534555546</v>
+        <v>519.3478997842168</v>
       </c>
       <c r="Y42" t="n">
-        <v>159.0199176792051</v>
+        <v>519.3478997842168</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L43" t="n">
-        <v>58.70925458062905</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M43" t="n">
-        <v>108.4046884975685</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N43" t="n">
-        <v>162.05973796556</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O43" t="n">
-        <v>196.2822639152314</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P43" t="n">
-        <v>202.3430655949284</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q43" t="n">
-        <v>121.7767020839706</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R43" t="n">
-        <v>121.7767020839706</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>21.62273565390985</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T43" t="n">
-        <v>21.62273565390985</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.38072694337451</v>
+        <v>197.5619861184864</v>
       </c>
       <c r="C44" t="n">
-        <v>99.38072694337451</v>
+        <v>197.5619861184864</v>
       </c>
       <c r="D44" t="n">
-        <v>99.38072694337451</v>
+        <v>197.5619861184864</v>
       </c>
       <c r="E44" t="n">
-        <v>99.38072694337451</v>
+        <v>197.5619861184864</v>
       </c>
       <c r="F44" t="n">
-        <v>99.38072694337451</v>
+        <v>197.5619861184864</v>
       </c>
       <c r="G44" t="n">
-        <v>54.72024516188256</v>
+        <v>197.5619861184864</v>
       </c>
       <c r="H44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I44" t="n">
-        <v>4.015792639752686</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J44" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K44" t="n">
-        <v>53.71122655669217</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L44" t="n">
-        <v>103.4066604736316</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M44" t="n">
-        <v>151.0941980706948</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N44" t="n">
-        <v>151.0941980706948</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O44" t="n">
-        <v>151.0941980706948</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P44" t="n">
-        <v>200.7896319876343</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>150.0851794655044</v>
+        <v>953.8515700725949</v>
       </c>
       <c r="S44" t="n">
-        <v>150.0851794655044</v>
+        <v>953.8515700725949</v>
       </c>
       <c r="T44" t="n">
-        <v>99.38072694337451</v>
+        <v>728.6342799752006</v>
       </c>
       <c r="U44" t="n">
-        <v>99.38072694337451</v>
+        <v>474.61633696859</v>
       </c>
       <c r="V44" t="n">
-        <v>99.38072694337451</v>
+        <v>197.5619861184864</v>
       </c>
       <c r="W44" t="n">
-        <v>99.38072694337451</v>
+        <v>197.5619861184864</v>
       </c>
       <c r="X44" t="n">
-        <v>99.38072694337451</v>
+        <v>197.5619861184864</v>
       </c>
       <c r="Y44" t="n">
-        <v>99.38072694337451</v>
+        <v>197.5619861184864</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.015792639752686</v>
+        <v>559.0379855035234</v>
       </c>
       <c r="C45" t="n">
-        <v>4.015792639752686</v>
+        <v>386.2848704253406</v>
       </c>
       <c r="D45" t="n">
-        <v>4.015792639752686</v>
+        <v>238.6965637842844</v>
       </c>
       <c r="E45" t="n">
-        <v>4.015792639752686</v>
+        <v>81.08703478713912</v>
       </c>
       <c r="F45" t="n">
-        <v>4.015792639752686</v>
+        <v>81.08703478713912</v>
       </c>
       <c r="G45" t="n">
-        <v>4.015792639752686</v>
+        <v>81.08703478713912</v>
       </c>
       <c r="H45" t="n">
-        <v>4.015792639752686</v>
+        <v>81.08703478713912</v>
       </c>
       <c r="I45" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>4.015792639752686</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K45" t="n">
-        <v>53.71122655669217</v>
+        <v>38.0960674107985</v>
       </c>
       <c r="L45" t="n">
-        <v>53.71122655669217</v>
+        <v>286.1736718527165</v>
       </c>
       <c r="M45" t="n">
-        <v>101.3987641537553</v>
+        <v>557.714641120903</v>
       </c>
       <c r="N45" t="n">
-        <v>101.3987641537553</v>
+        <v>829.2556103890895</v>
       </c>
       <c r="O45" t="n">
-        <v>101.3987641537553</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P45" t="n">
-        <v>151.0941980706948</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S45" t="n">
-        <v>200.7896319876343</v>
+        <v>926.4669324920219</v>
       </c>
       <c r="T45" t="n">
-        <v>200.7896319876343</v>
+        <v>726.0805366250838</v>
       </c>
       <c r="U45" t="n">
-        <v>150.0851794655044</v>
+        <v>726.0805366250838</v>
       </c>
       <c r="V45" t="n">
-        <v>99.38072694337451</v>
+        <v>726.0805366250838</v>
       </c>
       <c r="W45" t="n">
-        <v>48.67627442124464</v>
+        <v>726.0805366250838</v>
       </c>
       <c r="X45" t="n">
-        <v>48.67627442124464</v>
+        <v>726.0805366250838</v>
       </c>
       <c r="Y45" t="n">
-        <v>4.015792639752686</v>
+        <v>726.0805366250838</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L46" t="n">
-        <v>41.10231156647188</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M46" t="n">
-        <v>90.79774548341136</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N46" t="n">
-        <v>140.4931794003508</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O46" t="n">
-        <v>174.7157053500222</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T46" t="n">
-        <v>130.0720545075893</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
-        <v>79.36760198545944</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V46" t="n">
-        <v>28.66314946332957</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>214.587604768856</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L2" t="n">
-        <v>229.8722545957376</v>
+        <v>277.8199530293542</v>
       </c>
       <c r="M2" t="n">
-        <v>274.7849853934995</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N2" t="n">
-        <v>273.8751450035847</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O2" t="n">
-        <v>268.4554433734553</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P2" t="n">
-        <v>275.6495788582964</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q2" t="n">
         <v>220.8075902863009</v>
@@ -8058,25 +8060,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>184.5928109969086</v>
+        <v>134.395403</v>
       </c>
       <c r="L3" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>179.2819222159661</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>172.5974196195541</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P3" t="n">
-        <v>180.8224552258806</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.6796377307795</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8146,7 +8148,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N4" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O4" t="n">
         <v>169.5633330205178</v>
@@ -8216,22 +8218,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>264.7850127657646</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L5" t="n">
-        <v>280.0696625926461</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M5" t="n">
-        <v>272.7568072926143</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N5" t="n">
-        <v>223.6777370066762</v>
+        <v>275.6849780990054</v>
       </c>
       <c r="O5" t="n">
-        <v>274.5431641330531</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P5" t="n">
-        <v>225.4521708613878</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q5" t="n">
         <v>216.7480476275882</v>
@@ -8298,22 +8300,22 @@
         <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>185.2879282822859</v>
+        <v>179.6297706236815</v>
       </c>
       <c r="M6" t="n">
-        <v>188.7780910708764</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>189.2287463302419</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P6" t="n">
-        <v>171.3262863709702</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8383,7 +8385,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N7" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O7" t="n">
         <v>169.5633330205178</v>
@@ -8453,25 +8455,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>264.7850127657646</v>
+        <v>266.5948458611853</v>
       </c>
       <c r="L8" t="n">
-        <v>229.8722545957376</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M8" t="n">
-        <v>274.7849853934995</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N8" t="n">
-        <v>267.7874242439869</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O8" t="n">
         <v>224.3457561361446</v>
       </c>
       <c r="P8" t="n">
-        <v>275.6495788582964</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8529,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
         <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>185.2879282822859</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>183.119933412272</v>
       </c>
       <c r="N9" t="n">
-        <v>176.2273991772734</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>189.2287463302419</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P9" t="n">
-        <v>180.8224552258806</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8620,7 +8622,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N10" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O10" t="n">
         <v>169.5633330205178</v>
@@ -8690,25 +8692,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>214.587604768856</v>
+        <v>268.7846244334939</v>
       </c>
       <c r="L11" t="n">
-        <v>229.8722545957376</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M11" t="n">
-        <v>268.6972646339017</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N11" t="n">
-        <v>273.8751450035847</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O11" t="n">
-        <v>274.5431641330531</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P11" t="n">
-        <v>275.6495788582964</v>
+        <v>277.4594119537171</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8772,22 +8774,22 @@
         <v>134.395403</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>189.2875399500152</v>
       </c>
       <c r="M12" t="n">
-        <v>188.7780910708764</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N12" t="n">
-        <v>178.2555772781585</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>139.0313383333333</v>
+        <v>183.5705886716374</v>
       </c>
       <c r="P12" t="n">
-        <v>171.3262863709703</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q12" t="n">
-        <v>186.6796377307795</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8857,7 +8859,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N13" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O13" t="n">
         <v>169.5633330205178</v>
@@ -8930,22 +8932,22 @@
         <v>214.587604768856</v>
       </c>
       <c r="L14" t="n">
-        <v>280.0696625926461</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M14" t="n">
-        <v>268.6972646339017</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N14" t="n">
-        <v>223.6777370066762</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O14" t="n">
-        <v>274.5431641330531</v>
+        <v>276.3529972284738</v>
       </c>
       <c r="P14" t="n">
-        <v>275.6495788582964</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,28 +9005,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>182.5646328960234</v>
+        <v>178.9346533383041</v>
       </c>
       <c r="L15" t="n">
-        <v>185.2879282822859</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M15" t="n">
-        <v>188.7780910708764</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N15" t="n">
-        <v>178.2555772781585</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
-        <v>139.0313383333333</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P15" t="n">
-        <v>130.625047228972</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9094,7 +9096,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N16" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O16" t="n">
         <v>169.5633330205178</v>
@@ -9164,22 +9166,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>268.7846244334939</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L17" t="n">
-        <v>229.8722545957376</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
-        <v>224.5875773965909</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N17" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O17" t="n">
-        <v>278.5427758007825</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P17" t="n">
-        <v>273.3998692950045</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
         <v>220.8075902863009</v>
@@ -9243,22 +9245,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>189.2875399500152</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>192.7777027386057</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N18" t="n">
-        <v>172.5974196195541</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
-        <v>193.2283579979712</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
         <v>136.482229733871</v>
@@ -9419,7 +9421,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9480,7 +9482,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9492,10 +9494,10 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>277.816905905207</v>
       </c>
       <c r="P21" t="n">
-        <v>139.473584579462</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
         <v>136.482229733871</v>
@@ -9720,19 +9722,19 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>253.8740529730059</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N24" t="n">
-        <v>402.3419766228525</v>
+        <v>344.2496456653007</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
         <v>136.482229733871</v>
@@ -9951,13 +9953,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K27" t="n">
-        <v>275.0438464930818</v>
+        <v>150.7119311045153</v>
       </c>
       <c r="L27" t="n">
-        <v>323.8832945309086</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>412.8644904155703</v>
@@ -9966,10 +9968,10 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O27" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
         <v>136.482229733871</v>
@@ -10115,7 +10117,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>434.3676631324683</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
         <v>467.4940748325458</v>
@@ -10194,19 +10196,19 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>327.5816281580458</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M30" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N30" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>331.2012793855346</v>
+        <v>249.4085799166004</v>
       </c>
       <c r="Q30" t="n">
         <v>136.482229733871</v>
@@ -10355,7 +10357,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M32" t="n">
-        <v>467.4940748325457</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N32" t="n">
         <v>454.8408013884635</v>
@@ -10425,19 +10427,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N33" t="n">
-        <v>128.6161323053679</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10446,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10674,16 +10676,16 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N36" t="n">
-        <v>258.5531625267515</v>
+        <v>270.5420704802609</v>
       </c>
       <c r="O36" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
         <v>134.395403</v>
@@ -10908,10 +10910,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>412.8644904155703</v>
+        <v>339.7148782546483</v>
       </c>
       <c r="N39" t="n">
-        <v>336.6603552159556</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11072,7 +11074,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O41" t="n">
-        <v>380.1953423137611</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P41" t="n">
         <v>334.6706564983419</v>
@@ -11142,22 +11144,22 @@
         <v>134.395403</v>
       </c>
       <c r="L42" t="n">
-        <v>385.6739591155975</v>
+        <v>312.5243469546756</v>
       </c>
       <c r="M42" t="n">
-        <v>408.864878747841</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N42" t="n">
-        <v>398.3423649551231</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O42" t="n">
-        <v>210.0514943776909</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11297,25 +11299,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>264.7850127657646</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>280.0696625926461</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M44" t="n">
-        <v>272.7568072926143</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O44" t="n">
-        <v>224.3457561361446</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
-        <v>275.6495788582964</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11373,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>184.5928109969086</v>
+        <v>143.2439403504903</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>186.7499129699912</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O45" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>180.8224552258806</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.6796377307795</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11464,7 +11466,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N46" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O46" t="n">
         <v>169.5633330205178</v>
@@ -22592,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>91.65341470396851</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>155.6675437266307</v>
+        <v>158.1282168029262</v>
       </c>
       <c r="T2" t="n">
-        <v>178.7512402327433</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
         <v>251.4777635765444</v>
@@ -22607,13 +22609,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>350.5301170005546</v>
+        <v>296.3330973359167</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>316.6645794665315</v>
       </c>
       <c r="Y2" t="n">
-        <v>336.4896637543272</v>
+        <v>332.4900520865979</v>
       </c>
     </row>
     <row r="3">
@@ -22629,22 +22631,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>95.91501557773699</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>105.8360257102653</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>99.29235511987227</v>
+        <v>95.76949716293626</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>81.82619054040443</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>56.26549585749488</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>32.30652380083377</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22692,7 +22694,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>153.4737434216775</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>158.2631153926003</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>111.4366640120083</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>103.5611388004951</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>38.64143693087037</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>63.43863222815354</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S4" t="n">
-        <v>222.3574069614225</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T4" t="n">
-        <v>228.3324659915077</v>
+        <v>174.1354463268698</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>329.5193903267572</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -22790,16 +22792,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>332.9206277583789</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>363.0799865168638</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>364.6573574069224</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>287.9464953912448</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
         <v>205.224307868124</v>
@@ -22829,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>87.65380303623918</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>158.1282168029262</v>
       </c>
       <c r="T5" t="n">
         <v>222.9651171964204</v>
@@ -22850,7 +22852,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>332.4900520865979</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.1582486466678</v>
+        <v>111.1751059457069</v>
       </c>
       <c r="C6" t="n">
-        <v>120.8281759304924</v>
+        <v>116.8285642627631</v>
       </c>
       <c r="D6" t="n">
-        <v>95.91501557773699</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>105.8360257102653</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
         <v>143.5062320835493</v>
@@ -22926,10 +22928,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>156.7248946878652</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>149.4741317539481</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>152.2108888675423</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R7" t="n">
-        <v>148.9902644144412</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S7" t="n">
-        <v>172.159998964514</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
-        <v>178.1350579945991</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U7" t="n">
-        <v>235.8548623941556</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>87.65380303623918</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>151.6679320589013</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>168.7680975317825</v>
       </c>
       <c r="U8" t="n">
-        <v>207.2638866128674</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>278.3358135256108</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>300.332709003646</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>320.6641911342608</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>338.9503368306227</v>
       </c>
     </row>
     <row r="9">
@@ -23100,19 +23102,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>126.8117069637239</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>105.8360257102653</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>93.30882408664073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>85.82580220813375</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
@@ -23148,16 +23150,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>121.2248789850314</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>144.1855122436308</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>170.4601574025633</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>177.7117113750172</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
@@ -23203,7 +23205,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.56329187893961</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S10" t="n">
-        <v>172.159998964514</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T10" t="n">
-        <v>228.3324659915077</v>
+        <v>226.7848080616464</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
-        <v>202.7389430700306</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X10" t="n">
-        <v>201.7394766769681</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y10" t="n">
         <v>218.7486738677682</v>
@@ -23267,16 +23269,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>359.5571285599278</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>360.657745739193</v>
       </c>
       <c r="H11" t="n">
-        <v>293.9300264244764</v>
+        <v>283.9468837235155</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>151.0272882034861</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -23303,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>91.65341470396851</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
-        <v>155.6675437266307</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
-        <v>172.7677091995118</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
         <v>251.4777635765444</v>
@@ -23337,13 +23339,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>126.8117069637239</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>95.91501557773699</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>105.8360257102653</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
@@ -23355,7 +23357,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>36.3061354685631</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,16 +23387,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>121.2248789850314</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>144.1855122436308</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>170.4601574025633</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>177.7117113750172</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
@@ -23428,19 +23430,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8895889301081</v>
+        <v>166.3419310002468</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6340720089168</v>
+        <v>107.4370523442789</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>99.56152713276573</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
-        <v>123.1937396728737</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S13" t="n">
-        <v>172.159998964514</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T13" t="n">
         <v>228.3324659915077</v>
       </c>
       <c r="U13" t="n">
-        <v>235.8548623941556</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V13" t="n">
-        <v>228.535467811598</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
@@ -23501,22 +23503,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>338.9041587916104</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>357.0964554836323</v>
+        <v>360.2164056944902</v>
       </c>
       <c r="G14" t="n">
-        <v>364.6573574069224</v>
+        <v>360.657745739193</v>
       </c>
       <c r="H14" t="n">
-        <v>287.9464953912448</v>
+        <v>283.9468837235155</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>151.0272882034861</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23580,7 +23582,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>111.8195567434968</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.49757176418265</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
-        <v>118.7642059087358</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
-        <v>148.1851239113601</v>
+        <v>150.6457969876556</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>170.4601574025633</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>177.7117113750172</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>195.7923270853622</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -23650,34 +23652,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.6828082353427</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>98.80815851761079</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>96.77721617629061</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>95.96161341289593</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8895889301081</v>
+        <v>166.3419310002468</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6340720089168</v>
+        <v>107.4370523442789</v>
       </c>
       <c r="I16" t="n">
-        <v>153.7585467974036</v>
+        <v>99.56152713276573</v>
       </c>
       <c r="J16" t="n">
-        <v>88.83884492777894</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23732,25 +23734,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>115.015555248115</v>
       </c>
       <c r="E17" t="n">
-        <v>335.3813008346744</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>353.096843815903</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G17" t="n">
-        <v>360.657745739193</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H17" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I17" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
         <v>0.6592771345624158</v>
@@ -23798,7 +23800,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="18">
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.95824484047818</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>144.1855122436308</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>170.4601574025633</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>177.7117113750172</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>44.16833865242023</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.7616238429892</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -23938,22 +23940,22 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T19" t="n">
         <v>228.3324659915077</v>
       </c>
       <c r="U19" t="n">
-        <v>231.8552507264263</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V19" t="n">
-        <v>198.7393314023013</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>47.22723329070089</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -23972,13 +23974,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G20" t="n">
         <v>414.8547654038309</v>
@@ -24017,22 +24019,22 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>164.4348476484181</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X20" t="n">
-        <v>96.5777917895669</v>
+        <v>129.272421624686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>51.34145109760699</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24099,16 +24101,16 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>86.14685284095779</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -24136,7 +24138,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.8895889301081</v>
@@ -24187,7 +24189,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>107.1794502458072</v>
+        <v>253.3384716556116</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24209,19 +24211,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>173.2655878973476</v>
       </c>
       <c r="H23" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I23" t="n">
         <v>205.224307868124</v>
@@ -24263,13 +24265,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
-        <v>86.944044016036</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24297,7 +24299,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
         <v>110.4625155221328</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
         <v>168.9616139056444</v>
@@ -24339,16 +24341,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>102.4482217158202</v>
+        <v>135.4767128150213</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R25" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>222.3574069614225</v>
@@ -24421,10 +24423,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>247.4143720951131</v>
       </c>
       <c r="W25" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24452,7 +24454,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>307.5555086749346</v>
       </c>
       <c r="G26" t="n">
         <v>414.8547654038309</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>205.8649517235392</v>
@@ -24500,16 +24502,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
-        <v>86.944044016036</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X26" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -24531,10 +24533,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>110.4625155221328</v>
@@ -24573,13 +24575,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>118.7640858515825</v>
       </c>
       <c r="V27" t="n">
-        <v>104.1537809005699</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
         <v>228.3324659915077</v>
@@ -24658,7 +24660,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
@@ -24683,19 +24685,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H29" t="n">
-        <v>96.55472588167004</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I29" t="n">
         <v>205.224307868124</v>
@@ -24740,10 +24742,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>108.9409394940712</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y29" t="n">
         <v>112.4032644096333</v>
@@ -24759,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24768,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>136.0232102050423</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
         <v>198.3825319082687</v>
@@ -24816,13 +24818,13 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>232.9433228425561</v>
       </c>
       <c r="X30" t="n">
-        <v>42.22119056348834</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -24886,7 +24888,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S31" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T31" t="n">
         <v>228.3324659915077</v>
@@ -24895,7 +24897,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V31" t="n">
-        <v>74.02322442533077</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.1272324849117</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E32" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>133.0100561389384</v>
+        <v>388.6698031704778</v>
       </c>
       <c r="G32" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H32" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I32" t="n">
         <v>205.224307868124</v>
@@ -24968,7 +24970,7 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.4777635765444</v>
@@ -24977,7 +24979,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>118.4795443171232</v>
       </c>
       <c r="G33" t="n">
         <v>136.0232102050423</v>
@@ -25044,25 +25046,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>50.24743635262973</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -25081,10 +25083,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>114.2205189413953</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>167.8895889301081</v>
@@ -25135,7 +25137,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E35" t="n">
-        <v>141.5288582488041</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>205.8649517235392</v>
@@ -25208,19 +25210,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4777635765444</v>
+        <v>151.7394087709382</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X35" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -25287,13 +25289,13 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>161.9879688231744</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S37" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T37" t="n">
         <v>228.3324659915077</v>
@@ -25378,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>39.83554722615983</v>
       </c>
     </row>
     <row r="38">
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C38" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>283.3796809496812</v>
       </c>
       <c r="F38" t="n">
         <v>133.0100561389384</v>
       </c>
       <c r="G38" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H38" t="n">
         <v>338.1439033881534</v>
@@ -25445,13 +25447,13 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>151.7394087709382</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
@@ -25488,7 +25490,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>21.69571046039715</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25533,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="40">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>168.5071177802778</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -25606,7 +25608,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W40" t="n">
         <v>286.0925768874155</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>113.4322143175219</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734009</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>82.32092541299585</v>
       </c>
       <c r="E41" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>227.8526905842078</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H41" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655084</v>
       </c>
       <c r="I41" t="n">
         <v>205.224307868124</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25694,7 +25696,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>368.0630114411728</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
         <v>110.4625155221328</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25764,16 +25766,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>231.705050175675</v>
       </c>
       <c r="W42" t="n">
-        <v>234.7126584171209</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
-        <v>123.2049801956624</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T43" t="n">
         <v>228.3324659915077</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25877,16 +25879,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>370.6408884401539</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H44" t="n">
-        <v>287.9464953912448</v>
+        <v>164.9400918068692</v>
       </c>
       <c r="I44" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>91.65341470396851</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>172.7677091995118</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>54.2494141809168</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>143.5062320835493</v>
@@ -25962,7 +25964,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>27.95065656765887</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.4597690702927</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
-        <v>181.7113230427466</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>199.7919387530915</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>159.457274454909</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -26074,16 +26076,16 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
-        <v>178.1350579945991</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>235.8548623941556</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V46" t="n">
-        <v>202.7389430700306</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>261.6916936320744</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>360303.9202603896</v>
+        <v>363289.5466613056</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>360303.9202603897</v>
+        <v>363289.5466613054</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>360303.9202603896</v>
+        <v>363289.5466613055</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>360303.9202603896</v>
+        <v>363289.5466613055</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>360303.9202603897</v>
+        <v>363289.5466613054</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>363289.5466613054</v>
+        <v>519803.7618746522</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>519803.7618746522</v>
+        <v>519803.7618746521</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>519803.7618746521</v>
+        <v>519803.7618746522</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>519803.7618746523</v>
+        <v>519803.7618746521</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>519803.7618746521</v>
+        <v>519803.7618746522</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>519803.7618746522</v>
+        <v>519803.7618746521</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>519803.7618746523</v>
+        <v>519803.7618746522</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>516959.4471934292</v>
+        <v>519803.7618746521</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>360303.9202603896</v>
+        <v>519803.7618746523</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84057.66543748981</v>
+        <v>84753.36988980974</v>
       </c>
       <c r="C2" t="n">
-        <v>84057.66543748979</v>
+        <v>84753.36988980966</v>
       </c>
       <c r="D2" t="n">
-        <v>84057.66543748981</v>
+        <v>84753.36988980965</v>
       </c>
       <c r="E2" t="n">
-        <v>84057.66543748981</v>
+        <v>84753.36988980966</v>
       </c>
       <c r="F2" t="n">
-        <v>84057.66543748982</v>
+        <v>84753.36988980966</v>
       </c>
       <c r="G2" t="n">
-        <v>84753.36988980963</v>
+        <v>121223.9866896455</v>
       </c>
       <c r="H2" t="n">
         <v>121223.9866896454</v>
@@ -26350,10 +26352,10 @@
         <v>121223.9866896454</v>
       </c>
       <c r="O2" t="n">
-        <v>120561.2104002482</v>
+        <v>121223.9866896454</v>
       </c>
       <c r="P2" t="n">
-        <v>84057.66543748981</v>
+        <v>121223.9866896454</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16822.30596014799</v>
+        <v>18162.66782107245</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1096.233563949593</v>
+        <v>60322.48720044085</v>
       </c>
       <c r="H3" t="n">
-        <v>59381.39609633415</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13133.85061794315</v>
+        <v>14180.32501313452</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>52964.10554124923</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24116.05951883315</v>
+        <v>24321.91023934408</v>
       </c>
       <c r="C4" t="n">
-        <v>24116.05951883315</v>
+        <v>24321.91023934407</v>
       </c>
       <c r="D4" t="n">
-        <v>24116.05951883315</v>
+        <v>24321.91023934407</v>
       </c>
       <c r="E4" t="n">
-        <v>24116.05951883315</v>
+        <v>24321.91023934407</v>
       </c>
       <c r="F4" t="n">
-        <v>24116.05951883315</v>
+        <v>24321.91023934407</v>
       </c>
       <c r="G4" t="n">
-        <v>24321.91023934407</v>
+        <v>35113.13447355731</v>
       </c>
       <c r="H4" t="n">
         <v>35113.13447355731</v>
@@ -26454,10 +26456,10 @@
         <v>35113.13447355731</v>
       </c>
       <c r="O4" t="n">
-        <v>34917.02680706897</v>
+        <v>35113.13447355731</v>
       </c>
       <c r="P4" t="n">
-        <v>24116.05951883315</v>
+        <v>35113.13447355731</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="C5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="D5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="E5" t="n">
-        <v>3052.002406212041</v>
+        <v>3295.178795609984</v>
       </c>
       <c r="F5" t="n">
-        <v>3052.002406212041</v>
+        <v>3295.178795609984</v>
       </c>
       <c r="G5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="H5" t="n">
         <v>16676.45548636943</v>
@@ -26506,10 +26508,10 @@
         <v>16676.45548636943</v>
       </c>
       <c r="O5" t="n">
-        <v>16433.27909697149</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="P5" t="n">
-        <v>3052.002406212041</v>
+        <v>16676.45548636943</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6439.697552296624</v>
+        <v>5346.013033783223</v>
       </c>
       <c r="C6" t="n">
-        <v>23262.0035124446</v>
+        <v>23508.68085485561</v>
       </c>
       <c r="D6" t="n">
-        <v>23262.00351244461</v>
+        <v>23508.68085485559</v>
       </c>
       <c r="E6" t="n">
-        <v>56889.60351244461</v>
+        <v>57136.28085485561</v>
       </c>
       <c r="F6" t="n">
-        <v>56889.60351244463</v>
+        <v>57136.28085485561</v>
       </c>
       <c r="G6" t="n">
-        <v>56040.04729090599</v>
+        <v>9111.909529277873</v>
       </c>
       <c r="H6" t="n">
-        <v>10053.00063338457</v>
+        <v>69434.39672971872</v>
       </c>
       <c r="I6" t="n">
         <v>69434.39672971869</v>
       </c>
       <c r="J6" t="n">
-        <v>56300.54611177557</v>
+        <v>55254.0717165842</v>
       </c>
       <c r="K6" t="n">
-        <v>69434.39672971872</v>
+        <v>69434.39672971869</v>
       </c>
       <c r="L6" t="n">
-        <v>69434.39672971872</v>
+        <v>69434.39672971875</v>
       </c>
       <c r="M6" t="n">
-        <v>69434.39672971872</v>
+        <v>69434.39672971875</v>
       </c>
       <c r="N6" t="n">
-        <v>69434.39672971872</v>
+        <v>69434.39672971869</v>
       </c>
       <c r="O6" t="n">
-        <v>69210.90449620776</v>
+        <v>16470.29118846948</v>
       </c>
       <c r="P6" t="n">
-        <v>56889.60351244461</v>
+        <v>69434.3967297187</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="E4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="F4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H4" t="n">
         <v>274.2838073416025</v>
@@ -26826,10 +26828,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O4" t="n">
-        <v>270.2841956738732</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="P4" t="n">
-        <v>50.19740799690857</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.999611667729326</v>
+        <v>220.0867876769646</v>
       </c>
       <c r="H4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>220.0867876769647</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.999611667729326</v>
+        <v>220.0867876769646</v>
       </c>
       <c r="P4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="M2" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.10968723731074</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q2" t="n">
         <v>4.059542658712616</v>
@@ -34778,25 +34780,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>40.70123914199824</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P3" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O4" t="n">
         <v>34.56820802997106</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>48.16922989602339</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>52.00724109232928</v>
       </c>
       <c r="O5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>50.19740799690857</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="M6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P6" t="n">
-        <v>40.70123914199823</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N7" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O7" t="n">
         <v>34.56820802997106</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>50.19740799690857</v>
+        <v>52.00724109232928</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M8" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N8" t="n">
-        <v>44.10968723731074</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="N9" t="n">
-        <v>48.16922989602339</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P9" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O10" t="n">
         <v>34.56820802997106</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M11" t="n">
-        <v>44.10968723731074</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>50.19740799690857</v>
+        <v>52.00724109232928</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="P12" t="n">
-        <v>40.70123914199824</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N13" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O13" t="n">
         <v>34.56820802997106</v>
@@ -35650,22 +35652,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M14" t="n">
-        <v>44.10968723731074</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O14" t="n">
-        <v>50.19740799690857</v>
+        <v>52.00724109232928</v>
       </c>
       <c r="P14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K15" t="n">
-        <v>48.16922989602339</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="L15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N16" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O16" t="n">
         <v>34.56820802997106</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N17" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O17" t="n">
-        <v>54.19701966463789</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P17" t="n">
-        <v>47.94769843361666</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q17" t="n">
         <v>4.059542658712616</v>
@@ -35963,22 +35965,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L18" t="n">
-        <v>54.19701966463789</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>54.19701966463789</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N18" t="n">
-        <v>44.53925033830414</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>54.19701966463789</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
         <v>250.5834388302202</v>
@@ -36212,10 +36214,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O21" t="n">
-        <v>270.5854737144654</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="P21" t="n">
-        <v>8.848537350489996</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L24" t="n">
-        <v>118.7835326876286</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>140.6484434930818</v>
+        <v>16.31652810451528</v>
       </c>
       <c r="L27" t="n">
-        <v>188.7927742455313</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
         <v>274.2838073416025</v>
@@ -36686,10 +36688,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L29" t="n">
-        <v>204.4954085367307</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M29" t="n">
         <v>242.9064974359549</v>
@@ -36914,19 +36916,19 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
-        <v>192.4911078726684</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O30" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
-        <v>200.5762321565626</v>
+        <v>118.7835326876285</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M32" t="n">
-        <v>242.9064974359548</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N32" t="n">
         <v>231.1630643817873</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N33" t="n">
-        <v>0.5579630241179461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>270.5854737144654</v>
@@ -37166,7 +37168,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>130.4949932455015</v>
+        <v>142.4839011990109</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
+        <v>201.1341951806804</v>
+      </c>
+      <c r="N39" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N39" t="n">
-        <v>208.6021859347056</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
@@ -37792,7 +37794,7 @@
         <v>231.1630643817873</v>
       </c>
       <c r="O41" t="n">
-        <v>155.8495861776166</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P41" t="n">
         <v>109.2184856369541</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>250.5834388302202</v>
+        <v>177.4338266692982</v>
       </c>
       <c r="M42" t="n">
-        <v>270.2841956738732</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N42" t="n">
-        <v>270.2841956738732</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O42" t="n">
-        <v>71.02015604435758</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>50.19740799690857</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L44" t="n">
-        <v>50.19740799690857</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M44" t="n">
-        <v>48.16922989602339</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P44" t="n">
-        <v>50.19740799690857</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K45" t="n">
-        <v>50.19740799690857</v>
+        <v>8.848537350490295</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>48.16922989602339</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N46" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O46" t="n">
         <v>34.56820802997106</v>
